--- a/output/adra.xlsx
+++ b/output/adra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -25,46 +25,46 @@
     <t>Gross_National_Income</t>
   </si>
   <si>
-    <t>Subvencion_publica</t>
-  </si>
-  <si>
-    <t>dinero_anyo_anterior_en_proyectos</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Latinoamerica</t>
+    <t>Public_Grant</t>
+  </si>
+  <si>
+    <t>NGO_Country_Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>Vision_ONGD_LatinAmerica</t>
   </si>
   <si>
     <t>Vision_ONGD_Africa</t>
   </si>
   <si>
-    <t>Vision_ONGD_Confesional</t>
+    <t>Vision_ONGD_Confessional</t>
   </si>
   <si>
     <t>Vision_ONGD_Universal</t>
   </si>
   <si>
-    <t>Fondos_Publicos_MAE</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Descentralizada</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Internacional</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Otros</t>
-  </si>
-  <si>
-    <t>Fondos_Publicos_Total</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Cuotas</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Donaciones</t>
-  </si>
-  <si>
-    <t>Fondos_Privados_Empresas</t>
+    <t>Public_Funds_MAE</t>
+  </si>
+  <si>
+    <t>Public_Funds_Decentralized</t>
+  </si>
+  <si>
+    <t>Public_Funds_Internacional</t>
+  </si>
+  <si>
+    <t>Public_Funds_Other</t>
+  </si>
+  <si>
+    <t>Public_Funds_Total</t>
+  </si>
+  <si>
+    <t>Private_Funds_Cuotas</t>
+  </si>
+  <si>
+    <t>Public_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Public_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>Proporcion_Fondos_Privados</t>
+  </si>
+  <si>
+    <t>Anyo_ONG</t>
+  </si>
+  <si>
+    <t>Internacional</t>
+  </si>
+  <si>
+    <t>Colony</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -639,7 +648,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AJ59"/>
+  <dimension ref="A1:AM59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -648,7 +657,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -757,10 +766,19 @@
       <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:39">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -859,15 +877,24 @@
         <v>0.1336905916310826</v>
       </c>
       <c r="AI2">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ2">
+        <v>1</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>1</v>
+      </c>
+      <c r="AM2">
         <v>16460</v>
       </c>
     </row>
-    <row r="3" spans="1:36">
+    <row r="3" spans="1:39">
       <c r="A3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -966,15 +993,24 @@
         <v>0.1336905916310826</v>
       </c>
       <c r="AI3">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ3">
+        <v>1</v>
+      </c>
+      <c r="AK3">
+        <v>1</v>
+      </c>
+      <c r="AL3">
+        <v>1</v>
+      </c>
+      <c r="AM3">
         <v>137430</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1073,15 +1109,24 @@
         <v>0.1336905916310826</v>
       </c>
       <c r="AI4">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ4">
+        <v>1</v>
+      </c>
+      <c r="AK4">
+        <v>1</v>
+      </c>
+      <c r="AL4">
+        <v>1</v>
+      </c>
+      <c r="AM4">
         <v>235754</v>
       </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:39">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1180,15 +1225,24 @@
         <v>0.1336905916310826</v>
       </c>
       <c r="AI5">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ5">
+        <v>1</v>
+      </c>
+      <c r="AK5">
+        <v>1</v>
+      </c>
+      <c r="AL5">
+        <v>1</v>
+      </c>
+      <c r="AM5">
         <v>76544</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1287,15 +1341,24 @@
         <v>0.1336905916310826</v>
       </c>
       <c r="AI6">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ6">
+        <v>1</v>
+      </c>
+      <c r="AK6">
+        <v>1</v>
+      </c>
+      <c r="AL6">
+        <v>1</v>
+      </c>
+      <c r="AM6">
         <v>653330</v>
       </c>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1394,15 +1457,24 @@
         <v>0.1336905916310826</v>
       </c>
       <c r="AI7">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ7">
+        <v>1</v>
+      </c>
+      <c r="AK7">
+        <v>1</v>
+      </c>
+      <c r="AL7">
+        <v>1</v>
+      </c>
+      <c r="AM7">
         <v>60851</v>
       </c>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1501,15 +1573,24 @@
         <v>0.1336905916310826</v>
       </c>
       <c r="AI8">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ8">
+        <v>1</v>
+      </c>
+      <c r="AK8">
+        <v>1</v>
+      </c>
+      <c r="AL8">
+        <v>1</v>
+      </c>
+      <c r="AM8">
         <v>89358</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1608,15 +1689,24 @@
         <v>0.1336905916310826</v>
       </c>
       <c r="AI9">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ9">
+        <v>1</v>
+      </c>
+      <c r="AK9">
+        <v>1</v>
+      </c>
+      <c r="AL9">
+        <v>1</v>
+      </c>
+      <c r="AM9">
         <v>691595</v>
       </c>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1715,15 +1805,24 @@
         <v>0.08577382244166287</v>
       </c>
       <c r="AI10">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ10">
+        <v>1</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>1</v>
+      </c>
+      <c r="AM10">
         <v>17891</v>
       </c>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1822,15 +1921,24 @@
         <v>0.08577382244166287</v>
       </c>
       <c r="AI11">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ11">
+        <v>1</v>
+      </c>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>1</v>
+      </c>
+      <c r="AM11">
         <v>30500</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1929,15 +2037,24 @@
         <v>0.08577382244166287</v>
       </c>
       <c r="AI12">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ12">
+        <v>1</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>1</v>
+      </c>
+      <c r="AM12">
         <v>27774</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:39">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2036,15 +2153,24 @@
         <v>0.08577382244166287</v>
       </c>
       <c r="AI13">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>1</v>
+      </c>
+      <c r="AM13">
         <v>917574</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:39">
       <c r="A14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2143,15 +2269,24 @@
         <v>0.08577382244166287</v>
       </c>
       <c r="AI14">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ14">
+        <v>1</v>
+      </c>
+      <c r="AK14">
+        <v>1</v>
+      </c>
+      <c r="AL14">
+        <v>1</v>
+      </c>
+      <c r="AM14">
         <v>35102</v>
       </c>
     </row>
-    <row r="15" spans="1:36">
+    <row r="15" spans="1:39">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2250,15 +2385,24 @@
         <v>0.08577382244166287</v>
       </c>
       <c r="AI15">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>1</v>
+      </c>
+      <c r="AM15">
         <v>64700</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:39">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2357,15 +2501,24 @@
         <v>0.08577382244166287</v>
       </c>
       <c r="AI16">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ16">
+        <v>1</v>
+      </c>
+      <c r="AK16">
+        <v>1</v>
+      </c>
+      <c r="AL16">
+        <v>1</v>
+      </c>
+      <c r="AM16">
         <v>253410</v>
       </c>
     </row>
-    <row r="17" spans="1:36">
+    <row r="17" spans="1:39">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2464,15 +2617,24 @@
         <v>0.08577382244166287</v>
       </c>
       <c r="AI17">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ17">
+        <v>1</v>
+      </c>
+      <c r="AK17">
+        <v>1</v>
+      </c>
+      <c r="AL17">
+        <v>1</v>
+      </c>
+      <c r="AM17">
         <v>87542</v>
       </c>
     </row>
-    <row r="18" spans="1:36">
+    <row r="18" spans="1:39">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2571,15 +2733,24 @@
         <v>0.08577382244166287</v>
       </c>
       <c r="AI18">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AK18">
+        <v>1</v>
+      </c>
+      <c r="AL18">
+        <v>1</v>
+      </c>
+      <c r="AM18">
         <v>1970290</v>
       </c>
     </row>
-    <row r="19" spans="1:36">
+    <row r="19" spans="1:39">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2678,15 +2849,24 @@
         <v>0.08577382244166287</v>
       </c>
       <c r="AI19">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
+        <v>1</v>
+      </c>
+      <c r="AL19">
+        <v>1</v>
+      </c>
+      <c r="AM19">
         <v>76916</v>
       </c>
     </row>
-    <row r="20" spans="1:36">
+    <row r="20" spans="1:39">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2785,15 +2965,24 @@
         <v>0.08577382244166287</v>
       </c>
       <c r="AI20">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ20">
+        <v>1</v>
+      </c>
+      <c r="AK20">
+        <v>1</v>
+      </c>
+      <c r="AL20">
+        <v>1</v>
+      </c>
+      <c r="AM20">
         <v>4472</v>
       </c>
     </row>
-    <row r="21" spans="1:36">
+    <row r="21" spans="1:39">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -2892,15 +3081,24 @@
         <v>0.08577382244166287</v>
       </c>
       <c r="AI21">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ21">
+        <v>1</v>
+      </c>
+      <c r="AK21">
+        <v>1</v>
+      </c>
+      <c r="AL21">
+        <v>1</v>
+      </c>
+      <c r="AM21">
         <v>707106</v>
       </c>
     </row>
-    <row r="22" spans="1:36">
+    <row r="22" spans="1:39">
       <c r="A22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -2999,15 +3197,24 @@
         <v>0.07416858523719824</v>
       </c>
       <c r="AI22">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ22">
+        <v>1</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>1</v>
+      </c>
+      <c r="AM22">
         <v>45507</v>
       </c>
     </row>
-    <row r="23" spans="1:36">
+    <row r="23" spans="1:39">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3106,21 +3313,30 @@
         <v>0.07416858523719824</v>
       </c>
       <c r="AI23">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ23">
+        <v>1</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>1</v>
+      </c>
+      <c r="AM23">
         <v>1665532</v>
       </c>
     </row>
-    <row r="24" spans="1:36">
+    <row r="24" spans="1:39">
       <c r="A24" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3213,15 +3429,24 @@
         <v>0.07416858523719824</v>
       </c>
       <c r="AI24">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ24">
+        <v>1</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>1</v>
+      </c>
+      <c r="AM24">
         <v>149991</v>
       </c>
     </row>
-    <row r="25" spans="1:36">
+    <row r="25" spans="1:39">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3320,15 +3545,24 @@
         <v>0.07416858523719824</v>
       </c>
       <c r="AI25">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ25">
+        <v>1</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>1</v>
+      </c>
+      <c r="AM25">
         <v>91588</v>
       </c>
     </row>
-    <row r="26" spans="1:36">
+    <row r="26" spans="1:39">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3427,15 +3661,24 @@
         <v>0.07416858523719824</v>
       </c>
       <c r="AI26">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ26">
+        <v>1</v>
+      </c>
+      <c r="AK26">
+        <v>1</v>
+      </c>
+      <c r="AL26">
+        <v>1</v>
+      </c>
+      <c r="AM26">
         <v>4527335</v>
       </c>
     </row>
-    <row r="27" spans="1:36">
+    <row r="27" spans="1:39">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3534,15 +3777,24 @@
         <v>0.07416858523719824</v>
       </c>
       <c r="AI27">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ27">
+        <v>1</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>1</v>
+      </c>
+      <c r="AM27">
         <v>50311</v>
       </c>
     </row>
-    <row r="28" spans="1:36">
+    <row r="28" spans="1:39">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3641,15 +3893,24 @@
         <v>0.07416858523719824</v>
       </c>
       <c r="AI28">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ28">
+        <v>1</v>
+      </c>
+      <c r="AK28">
+        <v>1</v>
+      </c>
+      <c r="AL28">
+        <v>1</v>
+      </c>
+      <c r="AM28">
         <v>381864</v>
       </c>
     </row>
-    <row r="29" spans="1:36">
+    <row r="29" spans="1:39">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -3748,15 +4009,24 @@
         <v>0.07416858523719824</v>
       </c>
       <c r="AI29">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ29">
+        <v>1</v>
+      </c>
+      <c r="AK29">
+        <v>1</v>
+      </c>
+      <c r="AL29">
+        <v>1</v>
+      </c>
+      <c r="AM29">
         <v>1894759</v>
       </c>
     </row>
-    <row r="30" spans="1:36">
+    <row r="30" spans="1:39">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -3855,15 +4125,24 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ30">
+        <v>1</v>
+      </c>
+      <c r="AK30">
+        <v>1</v>
+      </c>
+      <c r="AL30">
+        <v>1</v>
+      </c>
+      <c r="AM30">
         <v>1100000</v>
       </c>
     </row>
-    <row r="31" spans="1:36">
+    <row r="31" spans="1:39">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -3962,15 +4241,24 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ31">
+        <v>1</v>
+      </c>
+      <c r="AK31">
+        <v>1</v>
+      </c>
+      <c r="AL31">
+        <v>1</v>
+      </c>
+      <c r="AM31">
         <v>90379</v>
       </c>
     </row>
-    <row r="32" spans="1:36">
+    <row r="32" spans="1:39">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4069,15 +4357,24 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ32">
+        <v>1</v>
+      </c>
+      <c r="AK32">
+        <v>0</v>
+      </c>
+      <c r="AL32">
+        <v>1</v>
+      </c>
+      <c r="AM32">
         <v>58879.5</v>
       </c>
     </row>
-    <row r="33" spans="1:36">
+    <row r="33" spans="1:39">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4176,15 +4473,24 @@
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ33">
+        <v>1</v>
+      </c>
+      <c r="AK33">
+        <v>0</v>
+      </c>
+      <c r="AL33">
+        <v>1</v>
+      </c>
+      <c r="AM33">
         <v>350000</v>
       </c>
     </row>
-    <row r="34" spans="1:36">
+    <row r="34" spans="1:39">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4283,15 +4589,24 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ34">
+        <v>1</v>
+      </c>
+      <c r="AK34">
+        <v>1</v>
+      </c>
+      <c r="AL34">
+        <v>1</v>
+      </c>
+      <c r="AM34">
         <v>105000</v>
       </c>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:39">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4390,15 +4705,24 @@
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ35">
+        <v>1</v>
+      </c>
+      <c r="AK35">
+        <v>1</v>
+      </c>
+      <c r="AL35">
+        <v>1</v>
+      </c>
+      <c r="AM35">
         <v>17115</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:39">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4497,15 +4821,24 @@
         <v>0</v>
       </c>
       <c r="AI36">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ36">
+        <v>1</v>
+      </c>
+      <c r="AK36">
+        <v>0</v>
+      </c>
+      <c r="AL36">
+        <v>1</v>
+      </c>
+      <c r="AM36">
         <v>4605</v>
       </c>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:39">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4604,15 +4937,24 @@
         <v>0.04567231603595205</v>
       </c>
       <c r="AI37">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ37">
+        <v>1</v>
+      </c>
+      <c r="AK37">
+        <v>1</v>
+      </c>
+      <c r="AL37">
+        <v>1</v>
+      </c>
+      <c r="AM37">
         <v>1100000</v>
       </c>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:39">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -4711,15 +5053,24 @@
         <v>0.04567231603595205</v>
       </c>
       <c r="AI38">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ38">
+        <v>1</v>
+      </c>
+      <c r="AK38">
+        <v>1</v>
+      </c>
+      <c r="AL38">
+        <v>1</v>
+      </c>
+      <c r="AM38">
         <v>90379</v>
       </c>
     </row>
-    <row r="39" spans="1:36">
+    <row r="39" spans="1:39">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4818,15 +5169,24 @@
         <v>0.04567231603595205</v>
       </c>
       <c r="AI39">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ39">
+        <v>1</v>
+      </c>
+      <c r="AK39">
+        <v>0</v>
+      </c>
+      <c r="AL39">
+        <v>1</v>
+      </c>
+      <c r="AM39">
         <v>58879.5</v>
       </c>
     </row>
-    <row r="40" spans="1:36">
+    <row r="40" spans="1:39">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -4925,15 +5285,24 @@
         <v>0.04567231603595205</v>
       </c>
       <c r="AI40">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ40">
+        <v>1</v>
+      </c>
+      <c r="AK40">
+        <v>0</v>
+      </c>
+      <c r="AL40">
+        <v>1</v>
+      </c>
+      <c r="AM40">
         <v>350000</v>
       </c>
     </row>
-    <row r="41" spans="1:36">
+    <row r="41" spans="1:39">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5032,15 +5401,24 @@
         <v>0.04567231603595205</v>
       </c>
       <c r="AI41">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ41">
+        <v>1</v>
+      </c>
+      <c r="AK41">
+        <v>1</v>
+      </c>
+      <c r="AL41">
+        <v>1</v>
+      </c>
+      <c r="AM41">
         <v>105000</v>
       </c>
     </row>
-    <row r="42" spans="1:36">
+    <row r="42" spans="1:39">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5139,15 +5517,24 @@
         <v>0.04567231603595205</v>
       </c>
       <c r="AI42">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ42">
+        <v>1</v>
+      </c>
+      <c r="AK42">
+        <v>1</v>
+      </c>
+      <c r="AL42">
+        <v>1</v>
+      </c>
+      <c r="AM42">
         <v>17115</v>
       </c>
     </row>
-    <row r="43" spans="1:36">
+    <row r="43" spans="1:39">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5246,15 +5633,24 @@
         <v>0.04567231603595205</v>
       </c>
       <c r="AI43">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ43">
+        <v>1</v>
+      </c>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>1</v>
+      </c>
+      <c r="AM43">
         <v>4605</v>
       </c>
     </row>
-    <row r="44" spans="1:36">
+    <row r="44" spans="1:39">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5353,15 +5749,24 @@
         <v>0.07186221209359707</v>
       </c>
       <c r="AI44">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ44">
+        <v>1</v>
+      </c>
+      <c r="AK44">
+        <v>1</v>
+      </c>
+      <c r="AL44">
+        <v>1</v>
+      </c>
+      <c r="AM44">
         <v>950343.755</v>
       </c>
     </row>
-    <row r="45" spans="1:36">
+    <row r="45" spans="1:39">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5460,15 +5865,24 @@
         <v>0.07186221209359707</v>
       </c>
       <c r="AI45">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ45">
+        <v>1</v>
+      </c>
+      <c r="AK45">
+        <v>1</v>
+      </c>
+      <c r="AL45">
+        <v>1</v>
+      </c>
+      <c r="AM45">
         <v>25283.5</v>
       </c>
     </row>
-    <row r="46" spans="1:36">
+    <row r="46" spans="1:39">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -5567,15 +5981,24 @@
         <v>0.07186221209359707</v>
       </c>
       <c r="AI46">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ46">
+        <v>1</v>
+      </c>
+      <c r="AK46">
+        <v>0</v>
+      </c>
+      <c r="AL46">
+        <v>1</v>
+      </c>
+      <c r="AM46">
         <v>325000</v>
       </c>
     </row>
-    <row r="47" spans="1:36">
+    <row r="47" spans="1:39">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -5674,15 +6097,24 @@
         <v>0.07186221209359707</v>
       </c>
       <c r="AI47">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ47">
+        <v>1</v>
+      </c>
+      <c r="AK47">
+        <v>0</v>
+      </c>
+      <c r="AL47">
+        <v>1</v>
+      </c>
+      <c r="AM47">
         <v>24114</v>
       </c>
     </row>
-    <row r="48" spans="1:36">
+    <row r="48" spans="1:39">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -5781,15 +6213,24 @@
         <v>0.07186221209359707</v>
       </c>
       <c r="AI48">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ48">
+        <v>1</v>
+      </c>
+      <c r="AK48">
+        <v>0</v>
+      </c>
+      <c r="AL48">
+        <v>1</v>
+      </c>
+      <c r="AM48">
         <v>12507.5</v>
       </c>
     </row>
-    <row r="49" spans="1:36">
+    <row r="49" spans="1:39">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -5888,15 +6329,24 @@
         <v>0.07186221209359707</v>
       </c>
       <c r="AI49">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ49">
+        <v>1</v>
+      </c>
+      <c r="AK49">
+        <v>0</v>
+      </c>
+      <c r="AL49">
+        <v>1</v>
+      </c>
+      <c r="AM49">
         <v>153005</v>
       </c>
     </row>
-    <row r="50" spans="1:36">
+    <row r="50" spans="1:39">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -5995,15 +6445,24 @@
         <v>0.07186221209359707</v>
       </c>
       <c r="AI50">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ50">
+        <v>1</v>
+      </c>
+      <c r="AK50">
+        <v>1</v>
+      </c>
+      <c r="AL50">
+        <v>1</v>
+      </c>
+      <c r="AM50">
         <v>90379.28</v>
       </c>
     </row>
-    <row r="51" spans="1:36">
+    <row r="51" spans="1:39">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6102,15 +6561,24 @@
         <v>0.07186221209359707</v>
       </c>
       <c r="AI51">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ51">
+        <v>1</v>
+      </c>
+      <c r="AK51">
+        <v>0</v>
+      </c>
+      <c r="AL51">
+        <v>1</v>
+      </c>
+      <c r="AM51">
         <v>5000</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:39">
       <c r="A52" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6209,15 +6677,24 @@
         <v>0.9522384812211176</v>
       </c>
       <c r="AI52">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ52">
+        <v>1</v>
+      </c>
+      <c r="AK52">
+        <v>1</v>
+      </c>
+      <c r="AL52">
+        <v>1</v>
+      </c>
+      <c r="AM52">
         <v>950343.755</v>
       </c>
     </row>
-    <row r="53" spans="1:36">
+    <row r="53" spans="1:39">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6316,15 +6793,24 @@
         <v>0.9522384812211176</v>
       </c>
       <c r="AI53">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ53">
+        <v>1</v>
+      </c>
+      <c r="AK53">
+        <v>1</v>
+      </c>
+      <c r="AL53">
+        <v>1</v>
+      </c>
+      <c r="AM53">
         <v>25283.5</v>
       </c>
     </row>
-    <row r="54" spans="1:36">
+    <row r="54" spans="1:39">
       <c r="A54" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6423,15 +6909,24 @@
         <v>0.9522384812211176</v>
       </c>
       <c r="AI54">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ54">
+        <v>1</v>
+      </c>
+      <c r="AK54">
+        <v>0</v>
+      </c>
+      <c r="AL54">
+        <v>1</v>
+      </c>
+      <c r="AM54">
         <v>325000</v>
       </c>
     </row>
-    <row r="55" spans="1:36">
+    <row r="55" spans="1:39">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -6530,15 +7025,24 @@
         <v>0.9522384812211176</v>
       </c>
       <c r="AI55">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ55">
+        <v>1</v>
+      </c>
+      <c r="AK55">
+        <v>0</v>
+      </c>
+      <c r="AL55">
+        <v>1</v>
+      </c>
+      <c r="AM55">
         <v>24114</v>
       </c>
     </row>
-    <row r="56" spans="1:36">
+    <row r="56" spans="1:39">
       <c r="A56" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -6637,15 +7141,24 @@
         <v>0.9522384812211176</v>
       </c>
       <c r="AI56">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ56">
+        <v>1</v>
+      </c>
+      <c r="AK56">
+        <v>0</v>
+      </c>
+      <c r="AL56">
+        <v>1</v>
+      </c>
+      <c r="AM56">
         <v>12507.5</v>
       </c>
     </row>
-    <row r="57" spans="1:36">
+    <row r="57" spans="1:39">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -6744,15 +7257,24 @@
         <v>0.9522384812211176</v>
       </c>
       <c r="AI57">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ57">
+        <v>1</v>
+      </c>
+      <c r="AK57">
+        <v>0</v>
+      </c>
+      <c r="AL57">
+        <v>1</v>
+      </c>
+      <c r="AM57">
         <v>153005</v>
       </c>
     </row>
-    <row r="58" spans="1:36">
+    <row r="58" spans="1:39">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -6851,15 +7373,24 @@
         <v>0.9522384812211176</v>
       </c>
       <c r="AI58">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ58">
+        <v>1</v>
+      </c>
+      <c r="AK58">
+        <v>1</v>
+      </c>
+      <c r="AL58">
+        <v>1</v>
+      </c>
+      <c r="AM58">
         <v>90379.28</v>
       </c>
     </row>
-    <row r="59" spans="1:36">
+    <row r="59" spans="1:39">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -6958,9 +7489,18 @@
         <v>0.9522384812211176</v>
       </c>
       <c r="AI59">
-        <v>1</v>
+        <v>1978</v>
       </c>
       <c r="AJ59">
+        <v>1</v>
+      </c>
+      <c r="AK59">
+        <v>0</v>
+      </c>
+      <c r="AL59">
+        <v>1</v>
+      </c>
+      <c r="AM59">
         <v>5000</v>
       </c>
     </row>

--- a/output/adra.xlsx
+++ b/output/adra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -61,10 +61,10 @@
     <t>Private_Funds_Cuotas</t>
   </si>
   <si>
-    <t>Public_Funds_Donations</t>
-  </si>
-  <si>
-    <t>Public_Funds_Companies</t>
+    <t>Private_Funds_Donations</t>
+  </si>
+  <si>
+    <t>Private_Funds_Companies</t>
   </si>
   <si>
     <t>Fondos_Privados_Venta</t>
@@ -118,6 +118,9 @@
     <t>Proporcion_Fondos_Privados</t>
   </si>
   <si>
+    <t>Proporcion_Fondos_MAE</t>
+  </si>
+  <si>
     <t>Anyo_ONG</t>
   </si>
   <si>
@@ -125,6 +128,9 @@
   </si>
   <si>
     <t>Colony</t>
+  </si>
+  <si>
+    <t>Delegacion</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -648,7 +654,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM59"/>
+  <dimension ref="A1:AO59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -657,7 +663,7 @@
     <col min="1" max="1" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -775,10 +781,16 @@
       <c r="AM1" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:41">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -877,24 +889,30 @@
         <v>0.1336905916310826</v>
       </c>
       <c r="AI2">
+        <v>0.4397974402159428</v>
+      </c>
+      <c r="AJ2">
         <v>1978</v>
       </c>
-      <c r="AJ2">
-        <v>1</v>
-      </c>
       <c r="AK2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM2">
+        <v>1</v>
+      </c>
+      <c r="AN2">
+        <v>1</v>
+      </c>
+      <c r="AO2">
         <v>16460</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:41">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -993,11 +1011,11 @@
         <v>0.1336905916310826</v>
       </c>
       <c r="AI3">
+        <v>0.4397974402159428</v>
+      </c>
+      <c r="AJ3">
         <v>1978</v>
       </c>
-      <c r="AJ3">
-        <v>1</v>
-      </c>
       <c r="AK3">
         <v>1</v>
       </c>
@@ -1005,12 +1023,18 @@
         <v>1</v>
       </c>
       <c r="AM3">
+        <v>1</v>
+      </c>
+      <c r="AN3">
+        <v>1</v>
+      </c>
+      <c r="AO3">
         <v>137430</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:41">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -1109,11 +1133,11 @@
         <v>0.1336905916310826</v>
       </c>
       <c r="AI4">
+        <v>0.4397974402159428</v>
+      </c>
+      <c r="AJ4">
         <v>1978</v>
       </c>
-      <c r="AJ4">
-        <v>1</v>
-      </c>
       <c r="AK4">
         <v>1</v>
       </c>
@@ -1121,12 +1145,18 @@
         <v>1</v>
       </c>
       <c r="AM4">
+        <v>1</v>
+      </c>
+      <c r="AN4">
+        <v>1</v>
+      </c>
+      <c r="AO4">
         <v>235754</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:41">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -1225,11 +1255,11 @@
         <v>0.1336905916310826</v>
       </c>
       <c r="AI5">
+        <v>0.4397974402159428</v>
+      </c>
+      <c r="AJ5">
         <v>1978</v>
       </c>
-      <c r="AJ5">
-        <v>1</v>
-      </c>
       <c r="AK5">
         <v>1</v>
       </c>
@@ -1237,12 +1267,18 @@
         <v>1</v>
       </c>
       <c r="AM5">
+        <v>1</v>
+      </c>
+      <c r="AN5">
+        <v>1</v>
+      </c>
+      <c r="AO5">
         <v>76544</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:41">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -1341,11 +1377,11 @@
         <v>0.1336905916310826</v>
       </c>
       <c r="AI6">
+        <v>0.4397974402159428</v>
+      </c>
+      <c r="AJ6">
         <v>1978</v>
       </c>
-      <c r="AJ6">
-        <v>1</v>
-      </c>
       <c r="AK6">
         <v>1</v>
       </c>
@@ -1353,12 +1389,18 @@
         <v>1</v>
       </c>
       <c r="AM6">
+        <v>1</v>
+      </c>
+      <c r="AN6">
+        <v>1</v>
+      </c>
+      <c r="AO6">
         <v>653330</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:41">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -1457,11 +1499,11 @@
         <v>0.1336905916310826</v>
       </c>
       <c r="AI7">
+        <v>0.4397974402159428</v>
+      </c>
+      <c r="AJ7">
         <v>1978</v>
       </c>
-      <c r="AJ7">
-        <v>1</v>
-      </c>
       <c r="AK7">
         <v>1</v>
       </c>
@@ -1469,12 +1511,18 @@
         <v>1</v>
       </c>
       <c r="AM7">
+        <v>1</v>
+      </c>
+      <c r="AN7">
+        <v>1</v>
+      </c>
+      <c r="AO7">
         <v>60851</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:41">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1573,11 +1621,11 @@
         <v>0.1336905916310826</v>
       </c>
       <c r="AI8">
+        <v>0.4397974402159428</v>
+      </c>
+      <c r="AJ8">
         <v>1978</v>
       </c>
-      <c r="AJ8">
-        <v>1</v>
-      </c>
       <c r="AK8">
         <v>1</v>
       </c>
@@ -1585,12 +1633,18 @@
         <v>1</v>
       </c>
       <c r="AM8">
+        <v>1</v>
+      </c>
+      <c r="AN8">
+        <v>1</v>
+      </c>
+      <c r="AO8">
         <v>89358</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:41">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -1689,11 +1743,11 @@
         <v>0.1336905916310826</v>
       </c>
       <c r="AI9">
+        <v>0.4397974402159428</v>
+      </c>
+      <c r="AJ9">
         <v>1978</v>
       </c>
-      <c r="AJ9">
-        <v>1</v>
-      </c>
       <c r="AK9">
         <v>1</v>
       </c>
@@ -1701,12 +1755,18 @@
         <v>1</v>
       </c>
       <c r="AM9">
+        <v>1</v>
+      </c>
+      <c r="AN9">
+        <v>1</v>
+      </c>
+      <c r="AO9">
         <v>691595</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:41">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1805,24 +1865,30 @@
         <v>0.08577382244166287</v>
       </c>
       <c r="AI10">
+        <v>0.7959387716671606</v>
+      </c>
+      <c r="AJ10">
         <v>1978</v>
       </c>
-      <c r="AJ10">
-        <v>1</v>
-      </c>
       <c r="AK10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>1</v>
+      </c>
+      <c r="AO10">
         <v>17891</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:41">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1921,24 +1987,30 @@
         <v>0.08577382244166287</v>
       </c>
       <c r="AI11">
+        <v>0.7959387716671606</v>
+      </c>
+      <c r="AJ11">
         <v>1978</v>
       </c>
-      <c r="AJ11">
-        <v>1</v>
-      </c>
       <c r="AK11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>1</v>
+      </c>
+      <c r="AO11">
         <v>30500</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:41">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2037,24 +2109,30 @@
         <v>0.08577382244166287</v>
       </c>
       <c r="AI12">
+        <v>0.7959387716671606</v>
+      </c>
+      <c r="AJ12">
         <v>1978</v>
       </c>
-      <c r="AJ12">
-        <v>1</v>
-      </c>
       <c r="AK12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12">
+        <v>1</v>
+      </c>
+      <c r="AN12">
+        <v>1</v>
+      </c>
+      <c r="AO12">
         <v>27774</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:41">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2153,24 +2231,30 @@
         <v>0.08577382244166287</v>
       </c>
       <c r="AI13">
+        <v>0.7959387716671606</v>
+      </c>
+      <c r="AJ13">
         <v>1978</v>
       </c>
-      <c r="AJ13">
-        <v>1</v>
-      </c>
       <c r="AK13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13">
+        <v>1</v>
+      </c>
+      <c r="AN13">
+        <v>1</v>
+      </c>
+      <c r="AO13">
         <v>917574</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:41">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -2269,11 +2353,11 @@
         <v>0.08577382244166287</v>
       </c>
       <c r="AI14">
+        <v>0.7959387716671606</v>
+      </c>
+      <c r="AJ14">
         <v>1978</v>
       </c>
-      <c r="AJ14">
-        <v>1</v>
-      </c>
       <c r="AK14">
         <v>1</v>
       </c>
@@ -2281,12 +2365,18 @@
         <v>1</v>
       </c>
       <c r="AM14">
+        <v>1</v>
+      </c>
+      <c r="AN14">
+        <v>1</v>
+      </c>
+      <c r="AO14">
         <v>35102</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:41">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2385,24 +2475,30 @@
         <v>0.08577382244166287</v>
       </c>
       <c r="AI15">
+        <v>0.7959387716671606</v>
+      </c>
+      <c r="AJ15">
         <v>1978</v>
       </c>
-      <c r="AJ15">
-        <v>1</v>
-      </c>
       <c r="AK15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15">
+        <v>1</v>
+      </c>
+      <c r="AN15">
+        <v>1</v>
+      </c>
+      <c r="AO15">
         <v>64700</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:41">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -2501,11 +2597,11 @@
         <v>0.08577382244166287</v>
       </c>
       <c r="AI16">
+        <v>0.7959387716671606</v>
+      </c>
+      <c r="AJ16">
         <v>1978</v>
       </c>
-      <c r="AJ16">
-        <v>1</v>
-      </c>
       <c r="AK16">
         <v>1</v>
       </c>
@@ -2513,12 +2609,18 @@
         <v>1</v>
       </c>
       <c r="AM16">
+        <v>1</v>
+      </c>
+      <c r="AN16">
+        <v>1</v>
+      </c>
+      <c r="AO16">
         <v>253410</v>
       </c>
     </row>
-    <row r="17" spans="1:39">
+    <row r="17" spans="1:41">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2617,11 +2719,11 @@
         <v>0.08577382244166287</v>
       </c>
       <c r="AI17">
+        <v>0.7959387716671606</v>
+      </c>
+      <c r="AJ17">
         <v>1978</v>
       </c>
-      <c r="AJ17">
-        <v>1</v>
-      </c>
       <c r="AK17">
         <v>1</v>
       </c>
@@ -2629,12 +2731,18 @@
         <v>1</v>
       </c>
       <c r="AM17">
+        <v>1</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
         <v>87542</v>
       </c>
     </row>
-    <row r="18" spans="1:39">
+    <row r="18" spans="1:41">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -2733,11 +2841,11 @@
         <v>0.08577382244166287</v>
       </c>
       <c r="AI18">
+        <v>0.7959387716671606</v>
+      </c>
+      <c r="AJ18">
         <v>1978</v>
       </c>
-      <c r="AJ18">
-        <v>1</v>
-      </c>
       <c r="AK18">
         <v>1</v>
       </c>
@@ -2745,12 +2853,18 @@
         <v>1</v>
       </c>
       <c r="AM18">
+        <v>1</v>
+      </c>
+      <c r="AN18">
+        <v>1</v>
+      </c>
+      <c r="AO18">
         <v>1970290</v>
       </c>
     </row>
-    <row r="19" spans="1:39">
+    <row r="19" spans="1:41">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2849,11 +2963,11 @@
         <v>0.08577382244166287</v>
       </c>
       <c r="AI19">
+        <v>0.7959387716671606</v>
+      </c>
+      <c r="AJ19">
         <v>1978</v>
       </c>
-      <c r="AJ19">
-        <v>1</v>
-      </c>
       <c r="AK19">
         <v>1</v>
       </c>
@@ -2861,12 +2975,18 @@
         <v>1</v>
       </c>
       <c r="AM19">
+        <v>1</v>
+      </c>
+      <c r="AN19">
+        <v>1</v>
+      </c>
+      <c r="AO19">
         <v>76916</v>
       </c>
     </row>
-    <row r="20" spans="1:39">
+    <row r="20" spans="1:41">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -2965,11 +3085,11 @@
         <v>0.08577382244166287</v>
       </c>
       <c r="AI20">
+        <v>0.7959387716671606</v>
+      </c>
+      <c r="AJ20">
         <v>1978</v>
       </c>
-      <c r="AJ20">
-        <v>1</v>
-      </c>
       <c r="AK20">
         <v>1</v>
       </c>
@@ -2977,12 +3097,18 @@
         <v>1</v>
       </c>
       <c r="AM20">
+        <v>1</v>
+      </c>
+      <c r="AN20">
+        <v>1</v>
+      </c>
+      <c r="AO20">
         <v>4472</v>
       </c>
     </row>
-    <row r="21" spans="1:39">
+    <row r="21" spans="1:41">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3081,11 +3207,11 @@
         <v>0.08577382244166287</v>
       </c>
       <c r="AI21">
+        <v>0.7959387716671606</v>
+      </c>
+      <c r="AJ21">
         <v>1978</v>
       </c>
-      <c r="AJ21">
-        <v>1</v>
-      </c>
       <c r="AK21">
         <v>1</v>
       </c>
@@ -3093,12 +3219,18 @@
         <v>1</v>
       </c>
       <c r="AM21">
+        <v>1</v>
+      </c>
+      <c r="AN21">
+        <v>1</v>
+      </c>
+      <c r="AO21">
         <v>707106</v>
       </c>
     </row>
-    <row r="22" spans="1:39">
+    <row r="22" spans="1:41">
       <c r="A22" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3197,24 +3329,30 @@
         <v>0.07416858523719824</v>
       </c>
       <c r="AI22">
+        <v>0.920359555849212</v>
+      </c>
+      <c r="AJ22">
         <v>1978</v>
       </c>
-      <c r="AJ22">
-        <v>1</v>
-      </c>
       <c r="AK22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>1</v>
+      </c>
+      <c r="AO22">
         <v>45507</v>
       </c>
     </row>
-    <row r="23" spans="1:39">
+    <row r="23" spans="1:41">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3313,30 +3451,36 @@
         <v>0.07416858523719824</v>
       </c>
       <c r="AI23">
+        <v>0.920359555849212</v>
+      </c>
+      <c r="AJ23">
         <v>1978</v>
       </c>
-      <c r="AJ23">
-        <v>1</v>
-      </c>
       <c r="AK23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23">
+        <v>1</v>
+      </c>
+      <c r="AN23">
+        <v>1</v>
+      </c>
+      <c r="AO23">
         <v>1665532</v>
       </c>
     </row>
-    <row r="24" spans="1:39">
+    <row r="24" spans="1:41">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B24">
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3429,24 +3573,30 @@
         <v>0.07416858523719824</v>
       </c>
       <c r="AI24">
+        <v>0.920359555849212</v>
+      </c>
+      <c r="AJ24">
         <v>1978</v>
       </c>
-      <c r="AJ24">
-        <v>1</v>
-      </c>
       <c r="AK24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>1</v>
+      </c>
+      <c r="AO24">
         <v>149991</v>
       </c>
     </row>
-    <row r="25" spans="1:39">
+    <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3545,24 +3695,30 @@
         <v>0.07416858523719824</v>
       </c>
       <c r="AI25">
+        <v>0.920359555849212</v>
+      </c>
+      <c r="AJ25">
         <v>1978</v>
       </c>
-      <c r="AJ25">
-        <v>1</v>
-      </c>
       <c r="AK25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>1</v>
+      </c>
+      <c r="AO25">
         <v>91588</v>
       </c>
     </row>
-    <row r="26" spans="1:39">
+    <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -3661,11 +3817,11 @@
         <v>0.07416858523719824</v>
       </c>
       <c r="AI26">
+        <v>0.920359555849212</v>
+      </c>
+      <c r="AJ26">
         <v>1978</v>
       </c>
-      <c r="AJ26">
-        <v>1</v>
-      </c>
       <c r="AK26">
         <v>1</v>
       </c>
@@ -3673,12 +3829,18 @@
         <v>1</v>
       </c>
       <c r="AM26">
+        <v>1</v>
+      </c>
+      <c r="AN26">
+        <v>1</v>
+      </c>
+      <c r="AO26">
         <v>4527335</v>
       </c>
     </row>
-    <row r="27" spans="1:39">
+    <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -3777,24 +3939,30 @@
         <v>0.07416858523719824</v>
       </c>
       <c r="AI27">
+        <v>0.920359555849212</v>
+      </c>
+      <c r="AJ27">
         <v>1978</v>
       </c>
-      <c r="AJ27">
-        <v>1</v>
-      </c>
       <c r="AK27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>1</v>
+      </c>
+      <c r="AO27">
         <v>50311</v>
       </c>
     </row>
-    <row r="28" spans="1:39">
+    <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -3893,11 +4061,11 @@
         <v>0.07416858523719824</v>
       </c>
       <c r="AI28">
+        <v>0.920359555849212</v>
+      </c>
+      <c r="AJ28">
         <v>1978</v>
       </c>
-      <c r="AJ28">
-        <v>1</v>
-      </c>
       <c r="AK28">
         <v>1</v>
       </c>
@@ -3905,12 +4073,18 @@
         <v>1</v>
       </c>
       <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>381864</v>
       </c>
     </row>
-    <row r="29" spans="1:39">
+    <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -4009,11 +4183,11 @@
         <v>0.07416858523719824</v>
       </c>
       <c r="AI29">
+        <v>0.920359555849212</v>
+      </c>
+      <c r="AJ29">
         <v>1978</v>
       </c>
-      <c r="AJ29">
-        <v>1</v>
-      </c>
       <c r="AK29">
         <v>1</v>
       </c>
@@ -4021,12 +4195,18 @@
         <v>1</v>
       </c>
       <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>1</v>
+      </c>
+      <c r="AO29">
         <v>1894759</v>
       </c>
     </row>
-    <row r="30" spans="1:39">
+    <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -4125,11 +4305,11 @@
         <v>0</v>
       </c>
       <c r="AI30">
+        <v>0.964896739301296</v>
+      </c>
+      <c r="AJ30">
         <v>1978</v>
       </c>
-      <c r="AJ30">
-        <v>1</v>
-      </c>
       <c r="AK30">
         <v>1</v>
       </c>
@@ -4137,12 +4317,18 @@
         <v>1</v>
       </c>
       <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>1</v>
+      </c>
+      <c r="AO30">
         <v>1100000</v>
       </c>
     </row>
-    <row r="31" spans="1:39">
+    <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -4241,11 +4427,11 @@
         <v>0</v>
       </c>
       <c r="AI31">
+        <v>0.964896739301296</v>
+      </c>
+      <c r="AJ31">
         <v>1978</v>
       </c>
-      <c r="AJ31">
-        <v>1</v>
-      </c>
       <c r="AK31">
         <v>1</v>
       </c>
@@ -4253,12 +4439,18 @@
         <v>1</v>
       </c>
       <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>1</v>
+      </c>
+      <c r="AO31">
         <v>90379</v>
       </c>
     </row>
-    <row r="32" spans="1:39">
+    <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4357,24 +4549,30 @@
         <v>0</v>
       </c>
       <c r="AI32">
+        <v>0.964896739301296</v>
+      </c>
+      <c r="AJ32">
         <v>1978</v>
       </c>
-      <c r="AJ32">
-        <v>1</v>
-      </c>
       <c r="AK32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
         <v>58879.5</v>
       </c>
     </row>
-    <row r="33" spans="1:39">
+    <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4473,24 +4671,30 @@
         <v>0</v>
       </c>
       <c r="AI33">
+        <v>0.964896739301296</v>
+      </c>
+      <c r="AJ33">
         <v>1978</v>
       </c>
-      <c r="AJ33">
-        <v>1</v>
-      </c>
       <c r="AK33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>1</v>
+      </c>
+      <c r="AO33">
         <v>350000</v>
       </c>
     </row>
-    <row r="34" spans="1:39">
+    <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -4589,11 +4793,11 @@
         <v>0</v>
       </c>
       <c r="AI34">
+        <v>0.964896739301296</v>
+      </c>
+      <c r="AJ34">
         <v>1978</v>
       </c>
-      <c r="AJ34">
-        <v>1</v>
-      </c>
       <c r="AK34">
         <v>1</v>
       </c>
@@ -4601,12 +4805,18 @@
         <v>1</v>
       </c>
       <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>1</v>
+      </c>
+      <c r="AO34">
         <v>105000</v>
       </c>
     </row>
-    <row r="35" spans="1:39">
+    <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -4705,11 +4915,11 @@
         <v>0</v>
       </c>
       <c r="AI35">
+        <v>0.964896739301296</v>
+      </c>
+      <c r="AJ35">
         <v>1978</v>
       </c>
-      <c r="AJ35">
-        <v>1</v>
-      </c>
       <c r="AK35">
         <v>1</v>
       </c>
@@ -4717,12 +4927,18 @@
         <v>1</v>
       </c>
       <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>1</v>
+      </c>
+      <c r="AO35">
         <v>17115</v>
       </c>
     </row>
-    <row r="36" spans="1:39">
+    <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36">
         <v>1</v>
@@ -4821,24 +5037,30 @@
         <v>0</v>
       </c>
       <c r="AI36">
+        <v>0.964896739301296</v>
+      </c>
+      <c r="AJ36">
         <v>1978</v>
       </c>
-      <c r="AJ36">
-        <v>1</v>
-      </c>
       <c r="AK36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
         <v>4605</v>
       </c>
     </row>
-    <row r="37" spans="1:39">
+    <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4937,11 +5159,11 @@
         <v>0.04567231603595205</v>
       </c>
       <c r="AI37">
+        <v>0.9434128893451701</v>
+      </c>
+      <c r="AJ37">
         <v>1978</v>
       </c>
-      <c r="AJ37">
-        <v>1</v>
-      </c>
       <c r="AK37">
         <v>1</v>
       </c>
@@ -4949,12 +5171,18 @@
         <v>1</v>
       </c>
       <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
         <v>1100000</v>
       </c>
     </row>
-    <row r="38" spans="1:39">
+    <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -5053,11 +5281,11 @@
         <v>0.04567231603595205</v>
       </c>
       <c r="AI38">
+        <v>0.9434128893451701</v>
+      </c>
+      <c r="AJ38">
         <v>1978</v>
       </c>
-      <c r="AJ38">
-        <v>1</v>
-      </c>
       <c r="AK38">
         <v>1</v>
       </c>
@@ -5065,12 +5293,18 @@
         <v>1</v>
       </c>
       <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
         <v>90379</v>
       </c>
     </row>
-    <row r="39" spans="1:39">
+    <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -5169,24 +5403,30 @@
         <v>0.04567231603595205</v>
       </c>
       <c r="AI39">
+        <v>0.9434128893451701</v>
+      </c>
+      <c r="AJ39">
         <v>1978</v>
       </c>
-      <c r="AJ39">
-        <v>1</v>
-      </c>
       <c r="AK39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>1</v>
+      </c>
+      <c r="AO39">
         <v>58879.5</v>
       </c>
     </row>
-    <row r="40" spans="1:39">
+    <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -5285,24 +5525,30 @@
         <v>0.04567231603595205</v>
       </c>
       <c r="AI40">
+        <v>0.9434128893451701</v>
+      </c>
+      <c r="AJ40">
         <v>1978</v>
       </c>
-      <c r="AJ40">
-        <v>1</v>
-      </c>
       <c r="AK40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
         <v>350000</v>
       </c>
     </row>
-    <row r="41" spans="1:39">
+    <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -5401,11 +5647,11 @@
         <v>0.04567231603595205</v>
       </c>
       <c r="AI41">
+        <v>0.9434128893451701</v>
+      </c>
+      <c r="AJ41">
         <v>1978</v>
       </c>
-      <c r="AJ41">
-        <v>1</v>
-      </c>
       <c r="AK41">
         <v>1</v>
       </c>
@@ -5413,12 +5659,18 @@
         <v>1</v>
       </c>
       <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>1</v>
+      </c>
+      <c r="AO41">
         <v>105000</v>
       </c>
     </row>
-    <row r="42" spans="1:39">
+    <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -5517,11 +5769,11 @@
         <v>0.04567231603595205</v>
       </c>
       <c r="AI42">
+        <v>0.9434128893451701</v>
+      </c>
+      <c r="AJ42">
         <v>1978</v>
       </c>
-      <c r="AJ42">
-        <v>1</v>
-      </c>
       <c r="AK42">
         <v>1</v>
       </c>
@@ -5529,12 +5781,18 @@
         <v>1</v>
       </c>
       <c r="AM42">
+        <v>0</v>
+      </c>
+      <c r="AN42">
+        <v>1</v>
+      </c>
+      <c r="AO42">
         <v>17115</v>
       </c>
     </row>
-    <row r="43" spans="1:39">
+    <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -5633,24 +5891,30 @@
         <v>0.04567231603595205</v>
       </c>
       <c r="AI43">
+        <v>0.9434128893451701</v>
+      </c>
+      <c r="AJ43">
         <v>1978</v>
       </c>
-      <c r="AJ43">
-        <v>1</v>
-      </c>
       <c r="AK43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43">
+        <v>0</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
         <v>4605</v>
       </c>
     </row>
-    <row r="44" spans="1:39">
+    <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -5749,11 +6013,11 @@
         <v>0.07186221209359707</v>
       </c>
       <c r="AI44">
+        <v>0.8825058161016307</v>
+      </c>
+      <c r="AJ44">
         <v>1978</v>
       </c>
-      <c r="AJ44">
-        <v>1</v>
-      </c>
       <c r="AK44">
         <v>1</v>
       </c>
@@ -5761,12 +6025,18 @@
         <v>1</v>
       </c>
       <c r="AM44">
+        <v>0</v>
+      </c>
+      <c r="AN44">
+        <v>1</v>
+      </c>
+      <c r="AO44">
         <v>950343.755</v>
       </c>
     </row>
-    <row r="45" spans="1:39">
+    <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -5865,11 +6135,11 @@
         <v>0.07186221209359707</v>
       </c>
       <c r="AI45">
+        <v>0.8825058161016307</v>
+      </c>
+      <c r="AJ45">
         <v>1978</v>
       </c>
-      <c r="AJ45">
-        <v>1</v>
-      </c>
       <c r="AK45">
         <v>1</v>
       </c>
@@ -5877,12 +6147,18 @@
         <v>1</v>
       </c>
       <c r="AM45">
+        <v>0</v>
+      </c>
+      <c r="AN45">
+        <v>1</v>
+      </c>
+      <c r="AO45">
         <v>25283.5</v>
       </c>
     </row>
-    <row r="46" spans="1:39">
+    <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -5981,24 +6257,30 @@
         <v>0.07186221209359707</v>
       </c>
       <c r="AI46">
+        <v>0.8825058161016307</v>
+      </c>
+      <c r="AJ46">
         <v>1978</v>
       </c>
-      <c r="AJ46">
-        <v>1</v>
-      </c>
       <c r="AK46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46">
+        <v>0</v>
+      </c>
+      <c r="AN46">
+        <v>1</v>
+      </c>
+      <c r="AO46">
         <v>325000</v>
       </c>
     </row>
-    <row r="47" spans="1:39">
+    <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -6097,24 +6379,30 @@
         <v>0.07186221209359707</v>
       </c>
       <c r="AI47">
+        <v>0.8825058161016307</v>
+      </c>
+      <c r="AJ47">
         <v>1978</v>
       </c>
-      <c r="AJ47">
-        <v>1</v>
-      </c>
       <c r="AK47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47">
+        <v>0</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
         <v>24114</v>
       </c>
     </row>
-    <row r="48" spans="1:39">
+    <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -6213,24 +6501,30 @@
         <v>0.07186221209359707</v>
       </c>
       <c r="AI48">
+        <v>0.8825058161016307</v>
+      </c>
+      <c r="AJ48">
         <v>1978</v>
       </c>
-      <c r="AJ48">
-        <v>1</v>
-      </c>
       <c r="AK48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48">
+        <v>0</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
         <v>12507.5</v>
       </c>
     </row>
-    <row r="49" spans="1:39">
+    <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -6329,24 +6623,30 @@
         <v>0.07186221209359707</v>
       </c>
       <c r="AI49">
+        <v>0.8825058161016307</v>
+      </c>
+      <c r="AJ49">
         <v>1978</v>
       </c>
-      <c r="AJ49">
-        <v>1</v>
-      </c>
       <c r="AK49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49">
+        <v>0</v>
+      </c>
+      <c r="AN49">
+        <v>1</v>
+      </c>
+      <c r="AO49">
         <v>153005</v>
       </c>
     </row>
-    <row r="50" spans="1:39">
+    <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -6445,11 +6745,11 @@
         <v>0.07186221209359707</v>
       </c>
       <c r="AI50">
+        <v>0.8825058161016307</v>
+      </c>
+      <c r="AJ50">
         <v>1978</v>
       </c>
-      <c r="AJ50">
-        <v>1</v>
-      </c>
       <c r="AK50">
         <v>1</v>
       </c>
@@ -6457,12 +6757,18 @@
         <v>1</v>
       </c>
       <c r="AM50">
+        <v>0</v>
+      </c>
+      <c r="AN50">
+        <v>1</v>
+      </c>
+      <c r="AO50">
         <v>90379.28</v>
       </c>
     </row>
-    <row r="51" spans="1:39">
+    <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -6561,24 +6867,30 @@
         <v>0.07186221209359707</v>
       </c>
       <c r="AI51">
+        <v>0.8825058161016307</v>
+      </c>
+      <c r="AJ51">
         <v>1978</v>
       </c>
-      <c r="AJ51">
-        <v>1</v>
-      </c>
       <c r="AK51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51">
+        <v>0</v>
+      </c>
+      <c r="AN51">
+        <v>1</v>
+      </c>
+      <c r="AO51">
         <v>5000</v>
       </c>
     </row>
-    <row r="52" spans="1:39">
+    <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -6677,11 +6989,11 @@
         <v>0.9522384812211176</v>
       </c>
       <c r="AI52">
+        <v>0</v>
+      </c>
+      <c r="AJ52">
         <v>1978</v>
       </c>
-      <c r="AJ52">
-        <v>1</v>
-      </c>
       <c r="AK52">
         <v>1</v>
       </c>
@@ -6689,12 +7001,18 @@
         <v>1</v>
       </c>
       <c r="AM52">
+        <v>0</v>
+      </c>
+      <c r="AN52">
+        <v>1</v>
+      </c>
+      <c r="AO52">
         <v>950343.755</v>
       </c>
     </row>
-    <row r="53" spans="1:39">
+    <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -6793,11 +7111,11 @@
         <v>0.9522384812211176</v>
       </c>
       <c r="AI53">
+        <v>0</v>
+      </c>
+      <c r="AJ53">
         <v>1978</v>
       </c>
-      <c r="AJ53">
-        <v>1</v>
-      </c>
       <c r="AK53">
         <v>1</v>
       </c>
@@ -6805,12 +7123,18 @@
         <v>1</v>
       </c>
       <c r="AM53">
+        <v>0</v>
+      </c>
+      <c r="AN53">
+        <v>1</v>
+      </c>
+      <c r="AO53">
         <v>25283.5</v>
       </c>
     </row>
-    <row r="54" spans="1:39">
+    <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -6909,24 +7233,30 @@
         <v>0.9522384812211176</v>
       </c>
       <c r="AI54">
+        <v>0</v>
+      </c>
+      <c r="AJ54">
         <v>1978</v>
       </c>
-      <c r="AJ54">
-        <v>1</v>
-      </c>
       <c r="AK54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54">
+        <v>0</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
         <v>325000</v>
       </c>
     </row>
-    <row r="55" spans="1:39">
+    <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -7025,24 +7355,30 @@
         <v>0.9522384812211176</v>
       </c>
       <c r="AI55">
+        <v>0</v>
+      </c>
+      <c r="AJ55">
         <v>1978</v>
       </c>
-      <c r="AJ55">
-        <v>1</v>
-      </c>
       <c r="AK55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55">
+        <v>0</v>
+      </c>
+      <c r="AN55">
+        <v>1</v>
+      </c>
+      <c r="AO55">
         <v>24114</v>
       </c>
     </row>
-    <row r="56" spans="1:39">
+    <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -7141,24 +7477,30 @@
         <v>0.9522384812211176</v>
       </c>
       <c r="AI56">
+        <v>0</v>
+      </c>
+      <c r="AJ56">
         <v>1978</v>
       </c>
-      <c r="AJ56">
-        <v>1</v>
-      </c>
       <c r="AK56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56">
+        <v>0</v>
+      </c>
+      <c r="AN56">
+        <v>1</v>
+      </c>
+      <c r="AO56">
         <v>12507.5</v>
       </c>
     </row>
-    <row r="57" spans="1:39">
+    <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -7257,24 +7599,30 @@
         <v>0.9522384812211176</v>
       </c>
       <c r="AI57">
+        <v>0</v>
+      </c>
+      <c r="AJ57">
         <v>1978</v>
       </c>
-      <c r="AJ57">
-        <v>1</v>
-      </c>
       <c r="AK57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57">
+        <v>0</v>
+      </c>
+      <c r="AN57">
+        <v>1</v>
+      </c>
+      <c r="AO57">
         <v>153005</v>
       </c>
     </row>
-    <row r="58" spans="1:39">
+    <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -7373,11 +7721,11 @@
         <v>0.9522384812211176</v>
       </c>
       <c r="AI58">
+        <v>0</v>
+      </c>
+      <c r="AJ58">
         <v>1978</v>
       </c>
-      <c r="AJ58">
-        <v>1</v>
-      </c>
       <c r="AK58">
         <v>1</v>
       </c>
@@ -7385,12 +7733,18 @@
         <v>1</v>
       </c>
       <c r="AM58">
+        <v>0</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
         <v>90379.28</v>
       </c>
     </row>
-    <row r="59" spans="1:39">
+    <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -7489,18 +7843,24 @@
         <v>0.9522384812211176</v>
       </c>
       <c r="AI59">
+        <v>0</v>
+      </c>
+      <c r="AJ59">
         <v>1978</v>
       </c>
-      <c r="AJ59">
-        <v>1</v>
-      </c>
       <c r="AK59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59">
+        <v>0</v>
+      </c>
+      <c r="AN59">
+        <v>1</v>
+      </c>
+      <c r="AO59">
         <v>5000</v>
       </c>
     </row>

--- a/output/adra.xlsx
+++ b/output/adra.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>Pais-Año</t>
   </si>
@@ -22,25 +22,25 @@
     <t>ONU</t>
   </si>
   <si>
-    <t>Gross_National_Income</t>
+    <t>GDP</t>
   </si>
   <si>
     <t>Public_Grant</t>
   </si>
   <si>
-    <t>NGO_Country_Budget_Previous_Year</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_LatinAmerica</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Africa</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Confessional</t>
-  </si>
-  <si>
-    <t>Vision_ONGD_Universal</t>
+    <t>Budget_Previous_Year</t>
+  </si>
+  <si>
+    <t>LatinAmerica</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Confessional</t>
+  </si>
+  <si>
+    <t>Universal</t>
   </si>
   <si>
     <t>Public_Funds_MAE</t>
@@ -109,16 +109,16 @@
     <t>Voluntarios_Extranjero</t>
   </si>
   <si>
-    <t>Total_subvencion_en_el_Pais_y_Anyo</t>
-  </si>
-  <si>
-    <t>Total_Fondos</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_Privados</t>
-  </si>
-  <si>
-    <t>Proporcion_Fondos_MAE</t>
+    <t>Donor_Aid_Budget</t>
+  </si>
+  <si>
+    <t>Total_Funds</t>
+  </si>
+  <si>
+    <t>%_Private_Funds</t>
+  </si>
+  <si>
+    <t>%_MAE_Funds</t>
   </si>
   <si>
     <t>Anyo_ONG</t>
@@ -130,7 +130,7 @@
     <t>Colony</t>
   </si>
   <si>
-    <t>Delegacion</t>
+    <t>Delegation</t>
   </si>
   <si>
     <t>Visitado</t>
@@ -206,9 +206,6 @@
   </si>
   <si>
     <t>2011_somalia</t>
-  </si>
-  <si>
-    <t>..</t>
   </si>
   <si>
     <t>2011_haiti</t>
@@ -796,7 +793,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4070</v>
+        <v>4043.14643519898</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -918,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>2820</v>
+        <v>2934.187009790061</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1040,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>1620</v>
+        <v>1873.394108966653</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1162,7 +1159,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1380</v>
+        <v>1460.056109840828</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1284,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>1620</v>
+        <v>1909.084588129339</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1406,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5130</v>
+        <v>6128.19547247793</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1528,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4060</v>
+        <v>4547.50930098406</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1650,7 +1647,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>3970</v>
+        <v>4729.735976516416</v>
       </c>
       <c r="D9">
         <v>300000</v>
@@ -1772,7 +1769,7 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4130</v>
+        <v>4141.976353364595</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1894,7 +1891,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>350</v>
+        <v>473.2998774917226</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2016,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="C12">
-        <v>1340</v>
+        <v>1280.225469721551</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2138,7 +2135,7 @@
         <v>1</v>
       </c>
       <c r="C13">
-        <v>380</v>
+        <v>341.5541149051794</v>
       </c>
       <c r="D13">
         <v>4500000</v>
@@ -2260,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>2890</v>
+        <v>2983.242707849043</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2382,7 +2379,7 @@
         <v>1</v>
       </c>
       <c r="C15">
-        <v>650</v>
+        <v>665.6274194933962</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2484,7 +2481,7 @@
         <v>1</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15">
         <v>1</v>
@@ -2504,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>1730</v>
+        <v>1904.346464968814</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2626,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>1460</v>
+        <v>1503.870423231357</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2748,7 +2745,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>1780</v>
+        <v>1955.461557360978</v>
       </c>
       <c r="D18">
         <v>8000000</v>
@@ -2870,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5610</v>
+        <v>6336.709213679884</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2992,7 +2989,7 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4390</v>
+        <v>4633.590358399045</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3114,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4410</v>
+        <v>5082.354756663512</v>
       </c>
       <c r="D21">
         <v>300000</v>
@@ -3236,7 +3233,7 @@
         <v>1</v>
       </c>
       <c r="C22">
-        <v>490</v>
+        <v>487.7306818514292</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -3358,7 +3355,7 @@
         <v>1</v>
       </c>
       <c r="C23">
-        <v>390</v>
+        <v>369.2024078290272</v>
       </c>
       <c r="D23">
         <v>4500000</v>
@@ -3479,8 +3476,8 @@
       <c r="B24">
         <v>1</v>
       </c>
-      <c r="C24" t="s">
-        <v>64</v>
+      <c r="C24">
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3596,13 +3593,13 @@
     </row>
     <row r="25" spans="1:41">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>710</v>
+        <v>691.8942672110555</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -3704,7 +3701,7 @@
         <v>1</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM25">
         <v>0</v>
@@ -3718,13 +3715,13 @@
     </row>
     <row r="26" spans="1:41">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1990</v>
+        <v>2024.117324382548</v>
       </c>
       <c r="D26">
         <v>8000000</v>
@@ -3840,13 +3837,13 @@
     </row>
     <row r="27" spans="1:41">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
       <c r="C27">
-        <v>11080</v>
+        <v>11627.81065059172</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3962,13 +3959,13 @@
     </row>
     <row r="28" spans="1:41">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
       <c r="C28">
-        <v>4870</v>
+        <v>4921.848409120176</v>
       </c>
       <c r="D28">
         <v>305890</v>
@@ -4084,13 +4081,13 @@
     </row>
     <row r="29" spans="1:41">
       <c r="A29" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
       <c r="C29">
-        <v>4970</v>
+        <v>5360.226632400601</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -4206,13 +4203,13 @@
     </row>
     <row r="30" spans="1:41">
       <c r="A30" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30">
         <v>0</v>
       </c>
       <c r="C30">
-        <v>2250</v>
+        <v>2094.024217383061</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -4328,13 +4325,13 @@
     </row>
     <row r="31" spans="1:41">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B31">
         <v>0</v>
       </c>
       <c r="C31">
-        <v>5790</v>
+        <v>5642.578115155247</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -4450,13 +4447,13 @@
     </row>
     <row r="32" spans="1:41">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B32">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>380</v>
+        <v>495.763971160512</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -4572,13 +4569,13 @@
     </row>
     <row r="33" spans="1:41">
       <c r="A33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B33">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>410</v>
+        <v>389.9389667216314</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -4694,13 +4691,13 @@
     </row>
     <row r="34" spans="1:41">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>0</v>
       </c>
       <c r="C34">
-        <v>5390</v>
+        <v>5122.180090208862</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -4816,13 +4813,13 @@
     </row>
     <row r="35" spans="1:41">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>0</v>
       </c>
       <c r="C35">
-        <v>2970</v>
+        <v>2379.668184479739</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -4938,13 +4935,13 @@
     </row>
     <row r="36" spans="1:41">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>460</v>
+        <v>482.9237812079122</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -5060,13 +5057,13 @@
     </row>
     <row r="37" spans="1:41">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
       <c r="C37">
-        <v>2590</v>
+        <v>2201.396847776877</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -5182,13 +5179,13 @@
     </row>
     <row r="38" spans="1:41">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B38">
         <v>0</v>
       </c>
       <c r="C38">
-        <v>6420</v>
+        <v>5919.20956823756</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -5304,13 +5301,13 @@
     </row>
     <row r="39" spans="1:41">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39">
-        <v>400</v>
+        <v>503.3023574516347</v>
       </c>
       <c r="D39">
         <v>300000</v>
@@ -5426,13 +5423,13 @@
     </row>
     <row r="40" spans="1:41">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40">
-        <v>470</v>
+        <v>419.1838602515346</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -5548,13 +5545,13 @@
     </row>
     <row r="41" spans="1:41">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>0</v>
       </c>
       <c r="C41">
-        <v>5810</v>
+        <v>5295.682695961288</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -5670,13 +5667,13 @@
     </row>
     <row r="42" spans="1:41">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
       <c r="C42">
-        <v>3290</v>
+        <v>2497.68592515536</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -5792,13 +5789,13 @@
     </row>
     <row r="43" spans="1:41">
       <c r="A43" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43">
-        <v>410</v>
+        <v>493.8183694827482</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -5914,13 +5911,13 @@
     </row>
     <row r="44" spans="1:41">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B44">
         <v>0</v>
       </c>
       <c r="C44">
-        <v>2830</v>
+        <v>2286.013198234259</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -6036,13 +6033,13 @@
     </row>
     <row r="45" spans="1:41">
       <c r="A45" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
       <c r="C45">
-        <v>3400</v>
+        <v>3252.634165082374</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -6158,13 +6155,13 @@
     </row>
     <row r="46" spans="1:41">
       <c r="A46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46">
-        <v>550</v>
+        <v>449.4203771491282</v>
       </c>
       <c r="D46">
         <v>1875000</v>
@@ -6280,13 +6277,13 @@
     </row>
     <row r="47" spans="1:41">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47">
-        <v>830</v>
+        <v>730.3063521039821</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -6388,7 +6385,7 @@
         <v>1</v>
       </c>
       <c r="AL47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM47">
         <v>0</v>
@@ -6402,13 +6399,13 @@
     </row>
     <row r="48" spans="1:41">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48">
-        <v>770</v>
+        <v>711.3043470146426</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -6524,13 +6521,13 @@
     </row>
     <row r="49" spans="1:41">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49">
-        <v>410</v>
+        <v>515.8271637832048</v>
       </c>
       <c r="D49">
         <v>300000</v>
@@ -6646,13 +6643,13 @@
     </row>
     <row r="50" spans="1:41">
       <c r="A50" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B50">
         <v>0</v>
       </c>
       <c r="C50">
-        <v>6530</v>
+        <v>5996.49696468919</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -6768,13 +6765,13 @@
     </row>
     <row r="51" spans="1:41">
       <c r="A51" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B51">
         <v>0</v>
       </c>
       <c r="C51">
-        <v>6330</v>
+        <v>6103.744960203087</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -6890,13 +6887,13 @@
     </row>
     <row r="52" spans="1:41">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
       <c r="C52">
-        <v>2960</v>
+        <v>2361.056581219794</v>
       </c>
       <c r="D52">
         <v>0</v>
@@ -7012,13 +7009,13 @@
     </row>
     <row r="53" spans="1:41">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
       <c r="C53">
-        <v>3440</v>
+        <v>3314.741082534716</v>
       </c>
       <c r="D53">
         <v>0</v>
@@ -7134,13 +7131,13 @@
     </row>
     <row r="54" spans="1:41">
       <c r="A54" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B54">
         <v>0</v>
       </c>
       <c r="C54">
-        <v>600</v>
+        <v>482.6390663355013</v>
       </c>
       <c r="D54">
         <v>0</v>
@@ -7256,13 +7253,13 @@
     </row>
     <row r="55" spans="1:41">
       <c r="A55" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B55">
         <v>0</v>
       </c>
       <c r="C55">
-        <v>810</v>
+        <v>729.1196658666737</v>
       </c>
       <c r="D55">
         <v>0</v>
@@ -7364,7 +7361,7 @@
         <v>1</v>
       </c>
       <c r="AL55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM55">
         <v>0</v>
@@ -7378,13 +7375,13 @@
     </row>
     <row r="56" spans="1:41">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>0</v>
       </c>
       <c r="C56">
-        <v>780</v>
+        <v>731.9993357350996</v>
       </c>
       <c r="D56">
         <v>0</v>
@@ -7500,13 +7497,13 @@
     </row>
     <row r="57" spans="1:41">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
       <c r="C57">
-        <v>390</v>
+        <v>517.8609592583078</v>
       </c>
       <c r="D57">
         <v>0</v>
@@ -7622,13 +7619,13 @@
     </row>
     <row r="58" spans="1:41">
       <c r="A58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B58">
         <v>0</v>
       </c>
       <c r="C58">
-        <v>6340</v>
+        <v>6114.227214287786</v>
       </c>
       <c r="D58">
         <v>0</v>
@@ -7744,13 +7741,13 @@
     </row>
     <row r="59" spans="1:41">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B59">
         <v>0</v>
       </c>
       <c r="C59">
-        <v>6067.5</v>
+        <v>6249.151036691844</v>
       </c>
       <c r="D59">
         <v>0</v>

--- a/output/adra.xlsx
+++ b/output/adra.xlsx
@@ -3114,7 +3114,7 @@
         <v>5082.354756663512</v>
       </c>
       <c r="D21">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>691595</v>
@@ -3358,7 +3358,7 @@
         <v>369.2024078290272</v>
       </c>
       <c r="D23">
-        <v>4500000</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>917574</v>
@@ -3477,7 +3477,7 @@
         <v>1</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>298.44</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -3724,7 +3724,7 @@
         <v>2024.117324382548</v>
       </c>
       <c r="D26">
-        <v>8000000</v>
+        <v>0</v>
       </c>
       <c r="E26">
         <v>1970290</v>
@@ -5069,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>1100000</v>
+        <v>4527335</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -5191,7 +5191,7 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>90379</v>
+        <v>1894759</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -5313,7 +5313,7 @@
         <v>300000</v>
       </c>
       <c r="E39">
-        <v>58879.5</v>
+        <v>0</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>350000</v>
+        <v>1665532</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -5557,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="E41">
-        <v>105000</v>
+        <v>381864</v>
       </c>
       <c r="F41">
         <v>0</v>
@@ -5679,7 +5679,7 @@
         <v>0</v>
       </c>
       <c r="E42">
-        <v>17115</v>
+        <v>0</v>
       </c>
       <c r="F42">
         <v>0</v>
@@ -5801,7 +5801,7 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>4605</v>
+        <v>45507</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -6530,7 +6530,7 @@
         <v>515.8271637832048</v>
       </c>
       <c r="D49">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="E49">
         <v>58879.5</v>
@@ -6899,7 +6899,7 @@
         <v>0</v>
       </c>
       <c r="E52">
-        <v>950343.755</v>
+        <v>1100000</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -7021,7 +7021,7 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>25283.5</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -7134,7 +7134,7 @@
         <v>93</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C54">
         <v>482.6390663355013</v>
@@ -7143,7 +7143,7 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>325000</v>
+        <v>350000</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -7256,7 +7256,7 @@
         <v>94</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55">
         <v>729.1196658666737</v>
@@ -7265,7 +7265,7 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>24114</v>
+        <v>0</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -7378,7 +7378,7 @@
         <v>95</v>
       </c>
       <c r="B56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C56">
         <v>731.9993357350996</v>
@@ -7387,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="E56">
-        <v>12507.5</v>
+        <v>0</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -7500,7 +7500,7 @@
         <v>96</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C57">
         <v>517.8609592583078</v>
@@ -7509,7 +7509,7 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>153005</v>
+        <v>58879.5</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -7631,7 +7631,7 @@
         <v>0</v>
       </c>
       <c r="E58">
-        <v>90379.28</v>
+        <v>90379</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -7753,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="F59">
         <v>0</v>
